--- a/Chonqqing Power Grid/data-files/14-18年批次数据（金额、数量）.xlsx
+++ b/Chonqqing Power Grid/data-files/14-18年批次数据（金额、数量）.xlsx
@@ -142,10 +142,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>科技项目含税总金额</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>农网含税总金额</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -154,10 +150,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>信息项目数量</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>大修含税总金额</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -186,10 +178,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>科技项目数量</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>零购含税总金额</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -202,18 +190,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>信息项目含税总金额</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>营销项目含税总金额</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>营销项目数量</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>运维及成本含税总金额</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -235,6 +211,30 @@
   </si>
   <si>
     <t>年份</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>科技含税总金额</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>科技数量</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息含税总金额</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息数量</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>营销含税总金额</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>营销数量</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1304,8 +1304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="Z1" sqref="Z1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1325,7 +1325,7 @@
   <sheetData>
     <row r="1" spans="1:30" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>28</v>
@@ -1337,7 +1337,7 @@
         <v>30</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>31</v>
@@ -1346,73 +1346,73 @@
         <v>32</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>33</v>
       </c>
       <c r="K1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="O1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="R1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="T1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="O1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="P1" s="3" t="s">
+      <c r="U1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="V1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="W1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="R1" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="T1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB1" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC1" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AD1" s="3" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
